--- a/AccuPay.Web/ImportTemplates/accupay-employeelist-template.xlsx
+++ b/AccuPay.Web/ImportTemplates/accupay-employeelist-template.xlsx
@@ -103,14 +103,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="176" formatCode="00\-0000000\-00"/>
+    <numFmt numFmtId="177" formatCode="0000\-0000\-0000"/>
+    <numFmt numFmtId="178" formatCode="000\-000\-000\-000"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="00\-0000000\-00"/>
-    <numFmt numFmtId="177" formatCode="000\-000\-000\-000"/>
+    <numFmt numFmtId="179" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="0000\-0000\-0000"/>
-    <numFmt numFmtId="179" formatCode="0.00;[Red]0.00"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -127,9 +127,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,23 +140,46 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,14 +187,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,15 +201,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,20 +240,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -237,24 +254,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,22 +278,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,13 +298,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,78 +436,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -400,85 +460,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,6 +489,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -510,62 +564,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,7 +592,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -600,134 +600,134 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
@@ -736,29 +736,27 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="58" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="179" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
   </cellXfs>
@@ -1148,7 +1146,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMJ1"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1185,101 +1183,98 @@
     <col min="25" max="25" width="26.1238095238095" style="2" customWidth="1"/>
     <col min="26" max="26" width="21.5428571428571" style="2" customWidth="1"/>
     <col min="27" max="1021" width="9.13333333333333" style="1" customWidth="1"/>
-    <col min="1022" max="1025" width="11.5238095238095" style="8"/>
-    <col min="1026" max="16384" width="9" style="8"/>
+    <col min="1022" max="1025" width="11.5238095238095" style="1"/>
+    <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:1024">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:26">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="U1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="V1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="W1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="17" t="s">
+      <c r="X1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="17" t="s">
+      <c r="Y1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="18" t="s">
+      <c r="Z1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="AMH1" s="8"/>
-      <c r="AMI1" s="8"/>
-      <c r="AMJ1" s="8"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" selectLockedCells="1" objects="1"/>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R1001">
+      <formula1>"Daily,Monthly,Fixed"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1001">
       <formula1>"Male,Female"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R1001">
-      <formula1>"Daily,Monthly,Fixed"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1001">
       <formula1>"Single,Married"</formula1>
